--- a/landing_page/static/documents/Inventory_template.xlsx
+++ b/landing_page/static/documents/Inventory_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">SKU</t>
   </si>
@@ -47,21 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">DESCRIPTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111234FFG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUSES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEHICLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAND NEW</t>
   </si>
 </sst>
 </file>
@@ -165,10 +150,10 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -200,33 +185,15 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
